--- a/biology/Zoologie/Gymnosoma_clavatum/Gymnosoma_clavatum.xlsx
+++ b/biology/Zoologie/Gymnosoma_clavatum/Gymnosoma_clavatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tachinaire coccinelle
-Gymnosoma clavatum, la Tachinaire coccinelle, est une espèce de mouches de la famille des Tachinidae[2],[3].
+Gymnosoma clavatum, la Tachinaire coccinelle, est une espèce de mouches de la famille des Tachinidae,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans la majeure partie de l'Europe, jusqu'en Asie centrale et au Moyen-Orient. Elle n'est pas présente au Royaume-Uni[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans la majeure partie de l'Europe, jusqu'en Asie centrale et au Moyen-Orient. Elle n'est pas présente au Royaume-Uni.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnosoma clavatum mesure de six à huit millimètres de long. Elle a un thorax noir, cependant chez le mâle le mésonotum présente une pruinosité dorée juste avant le scutellum, ce dernier est noir avec deux paires de soies marginales. L'abdomen sub-globuleux rouge est glabre, avec de grandes marques noires au milieu. Chez les femelles, le thorax présente trois taches de pruinosité avant le scutellum. Les tergites abdominaux sont complètement fusionnés, les yeux composés sont rouges, les antennes sont noires et longues, les ailes sont légèrement assombries, avec des basicostas jaunes, enfin les fémurs et les tibias sont noirs[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnosoma clavatum mesure de six à huit millimètres de long. Elle a un thorax noir, cependant chez le mâle le mésonotum présente une pruinosité dorée juste avant le scutellum, ce dernier est noir avec deux paires de soies marginales. L'abdomen sub-globuleux rouge est glabre, avec de grandes marques noires au milieu. Chez les femelles, le thorax présente trois taches de pruinosité avant le scutellum. Les tergites abdominaux sont complètement fusionnés, les yeux composés sont rouges, les antennes sont noires et longues, les ailes sont légèrement assombries, avec des basicostas jaunes, enfin les fémurs et les tibias sont noirs,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les autres espèces du genre Gymnosoma sont très proches, il convient de regarder tous les critères.
 </t>
@@ -605,9 +623,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes volent de mai à octobre. Ces mouches sont des endoparasites de diverses espèces de Pentatomidae, sur lesquelles les femelles pondent leurs œufs. Les larves se développent à l'intérieur. Les hôtes connus de ces mouches parasites sont Ancyrosoma leucogrammes, Carpocoris pudicus, Cydnus aterrimus, Dolycoris baccarum, Eurygaster integriceps, Nezara viridula, Palomena prasina, Piezodorus lituratus[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes volent de mai à octobre. Ces mouches sont des endoparasites de diverses espèces de Pentatomidae, sur lesquelles les femelles pondent leurs œufs. Les larves se développent à l'intérieur. Les hôtes connus de ces mouches parasites sont Ancyrosoma leucogrammes, Carpocoris pudicus, Cydnus aterrimus, Dolycoris baccarum, Eurygaster integriceps, Nezara viridula, Palomena prasina, Piezodorus lituratus.
 </t>
         </is>
       </c>
@@ -636,11 +656,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Gymnosoma clavatum (Rohdendorf, 1947)[7].
-L'espèce a été initialement classée dans le genre Rhodogyne sous le protonyme Rhodogyne clavata Rohdendorf, 1947[7].
-Gymnosoma clavatum a pour synonymes[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Gymnosoma clavatum (Rohdendorf, 1947).
+L'espèce a été initialement classée dans le genre Rhodogyne sous le protonyme Rhodogyne clavata Rohdendorf, 1947.
+Gymnosoma clavatum a pour synonymes :
 Rhodogyne clavata Rohdendorf, 1947
 Rhodogyne verbekei Mesnil, 1952</t>
         </is>
